--- a/test/testcases.xlsx
+++ b/test/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Learning24\web\firstweb\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08427FF-2125-4405-A91C-D2D244340C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA0C70-A9FF-4F89-A358-373794EB0253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -549,12 +549,225 @@
   <si>
     <t>Verify order payment</t>
   </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. User inputs [Email], [password] valid
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system navigates to the dashboard page</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>si_tc_02</t>
+  </si>
+  <si>
+    <t>Log in successfully
++ Click &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [Email] and [Password] are blank</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system shows an error ME008 message: "Required field"</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [Email] is wrong format</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. User inputs [Email] is invalid
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system shows an error ME009 message: "Please enter a valid email address"</t>
+  </si>
+  <si>
+    <t>si_tc_03</t>
+  </si>
+  <si>
+    <t>si_tc_04</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. User inputs [Password] &lt; 8 characters
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [Password] is less than 8 characters</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system shows an error ME007 message: "Password must be at least 8 characters long, contain an uppercase letter, a lowercase letter, a number, and a special character."</t>
+  </si>
+  <si>
+    <t>si_tc_05</t>
+  </si>
+  <si>
+    <t>Verify  the password field be encrypted</t>
+  </si>
+  <si>
+    <t>1. User inputs some characters in the [password] field</t>
+  </si>
+  <si>
+    <r>
+      <t>1. The system shows "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>••••••••</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>si_tc_06</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [Password] is incorrect</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. User inputs [Password] is incorrect
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system shows an error ME006 message: "Invalid email or password. Please try again!"</t>
+  </si>
+  <si>
+    <t>si_tc_07</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. The [Password] field doesn't meet
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [Password] doesn't meet</t>
+  </si>
+  <si>
+    <t>si_tc_08</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [Email] is blank</t>
+  </si>
+  <si>
+    <t>si_tc_09</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [password] is blank</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. The [email] field is blank
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. The [password] field is blank
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system shows an error ME0010 message: "The email field is required."</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system shows an error ME0011 message: "The password field is required."</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>si_tc_10</t>
+  </si>
+  <si>
+    <t>Log out successfully
+- Click &lt;Log Out&gt; button</t>
+  </si>
+  <si>
+    <t>1. User logged in successfully and stayed the dashboard page
+2. User clicks &lt;Log Out&gt; button
+3. User clicks &lt;Ok&gt; button</t>
+  </si>
+  <si>
+    <t>si_tc_11</t>
+  </si>
+  <si>
+    <t>Log out unsuccessfully
+- Click &lt;Log Out&gt; button</t>
+  </si>
+  <si>
+    <t>1. User logged in successfully and stayed the dashboard page
+2. User clicks &lt;Log Out&gt; button
+3. User clicks &lt;Cancel&gt; button</t>
+  </si>
+  <si>
+    <t>1. The system is showing the dashboard page
+2. The system shows pop-up "Are you sure you want to log out the system ?"
+3. The system is closed pop-up and it is still the dashboard page</t>
+  </si>
+  <si>
+    <t>1. The system is showing the dashboard page
+2. The system shows pop-up "Are you sure you want to log out the system ?"
+3. The system removes data from the user and close pop-up. Then back to the login page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +834,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -636,7 +854,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -774,11 +992,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -851,14 +1100,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,11 +1115,46 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2226,7 +2507,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -2269,16 +2550,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="182.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
@@ -2421,16 +2702,16 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:11" ht="178.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
@@ -2453,16 +2734,16 @@
       <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="156.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
@@ -2486,29 +2767,29 @@
       <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11" ht="364.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="30" t="s">
         <v>116</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -5863,13 +6144,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="39.5546875" customWidth="1"/>
@@ -5882,57 +6163,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="98.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="B3" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="97.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="109.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" ht="154.19999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="124.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="110.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="154.19999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="97.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="90" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+    </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6919,9 +7418,15 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2" xr:uid="{67DFD87F-2F78-4074-8D57-7FB58EE011D4}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E11 E13:E14" xr:uid="{67DFD87F-2F78-4074-8D57-7FB58EE011D4}">
       <formula1>"High,Medium,Low,Block"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testcases.xlsx
+++ b/test/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Learning24\web\firstweb\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106780AF-DEC9-4A3E-8C2C-140773A6A2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1C875-A3C1-4544-A6C1-5DA207FA2639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Missing notification "duyenqa.github.io wants to"
-Missing notification duyenqa.github.io says"</t>
   </si>
   <si>
     <t>e_tc_02</t>
@@ -877,46 +873,6 @@
 + Click &lt;Edit&gt; icon</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ipad(Apple):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Don't remove text in editor when a text added in table</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ipad(Apple):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Don't remove text in editor when user clicks &lt;Cancel&gt; button</t>
-    </r>
-  </si>
-  <si>
     <t>Verify result list table, in case create to do successfully</t>
   </si>
   <si>
@@ -994,6 +950,87 @@
   <si>
     <t>Change background color</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Fixed]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ipad(Apple):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Don't remove text in editor when a text added in table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Fixed]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ipad(Apple):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Don't remove text in editor when user clicks &lt;Cancel&gt; button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ipad(Apple):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Missing notification "duyenqa.github.io wants to"
+Missing notification duyenqa.github.io says"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1069,12 +1106,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1083,6 +1114,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1349,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,9 +1564,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1555,27 +1606,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,24 +1624,20 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1820,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1910,8 +1945,8 @@
       <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>16</v>
+      <c r="I2" s="63" t="s">
+        <v>204</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1934,16 +1969,16 @@
     </row>
     <row r="3" spans="1:27" ht="135" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>13</v>
@@ -1979,16 +2014,16 @@
     </row>
     <row r="4" spans="1:27" ht="78" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>13</v>
@@ -2024,16 +2059,16 @@
     </row>
     <row r="5" spans="1:27" ht="107.25" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>13</v>
@@ -2069,19 +2104,19 @@
     </row>
     <row r="6" spans="1:27" ht="95.4" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="C6" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="D6" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>172</v>
-      </c>
       <c r="E6" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="53" t="s">
         <v>14</v>
@@ -2114,19 +2149,19 @@
     </row>
     <row r="7" spans="1:27" ht="66.599999999999994" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="64" t="s">
         <v>14</v>
@@ -2159,19 +2194,19 @@
     </row>
     <row r="8" spans="1:27" ht="85.2" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>178</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="64" t="s">
         <v>14</v>
@@ -30989,7 +31024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -31054,17 +31089,17 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>28</v>
+      <c r="A2" s="72" t="s">
+        <v>27</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -31085,19 +31120,19 @@
     </row>
     <row r="3" spans="1:26" ht="204.75" customHeight="1" outlineLevel="1">
       <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
@@ -31129,19 +31164,19 @@
     </row>
     <row r="4" spans="1:26" ht="153" customHeight="1" outlineLevel="1">
       <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
@@ -31173,19 +31208,19 @@
     </row>
     <row r="5" spans="1:26" ht="166.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
@@ -31217,19 +31252,19 @@
     </row>
     <row r="6" spans="1:26" ht="168" customHeight="1" outlineLevel="1">
       <c r="A6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
@@ -31261,19 +31296,19 @@
     </row>
     <row r="7" spans="1:26" ht="168" customHeight="1" outlineLevel="1">
       <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -31305,19 +31340,19 @@
     </row>
     <row r="8" spans="1:26" ht="163.5" customHeight="1" outlineLevel="1">
       <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>14</v>
@@ -31349,19 +31384,19 @@
     </row>
     <row r="9" spans="1:26" ht="165.75" customHeight="1" outlineLevel="1">
       <c r="A9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>14</v>
@@ -31393,31 +31428,31 @@
     </row>
     <row r="10" spans="1:26" ht="165.75" customHeight="1" outlineLevel="1">
       <c r="A10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>64</v>
-      </c>
       <c r="G10" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -31439,19 +31474,19 @@
     </row>
     <row r="11" spans="1:26" ht="165.75" customHeight="1" outlineLevel="1">
       <c r="A11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E11" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>14</v>
@@ -31483,19 +31518,19 @@
     </row>
     <row r="12" spans="1:26" ht="165.75" customHeight="1" outlineLevel="1">
       <c r="A12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="E12" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>14</v>
@@ -31507,7 +31542,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -31529,19 +31564,19 @@
     </row>
     <row r="13" spans="1:26" ht="165.75" customHeight="1" outlineLevel="1">
       <c r="A13" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="D13" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>175</v>
-      </c>
       <c r="E13" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>14</v>
@@ -31572,17 +31607,17 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="70" t="s">
-        <v>73</v>
+      <c r="A14" s="75" t="s">
+        <v>72</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -31603,19 +31638,19 @@
     </row>
     <row r="15" spans="1:26" ht="178.5" customHeight="1" outlineLevel="1">
       <c r="A15" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="C15" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>77</v>
-      </c>
       <c r="E15" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>14</v>
@@ -31646,17 +31681,17 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="73" t="s">
-        <v>78</v>
+      <c r="A16" s="78" t="s">
+        <v>77</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="5"/>
       <c r="K16" s="27"/>
       <c r="L16" s="5"/>
@@ -31677,19 +31712,19 @@
     </row>
     <row r="17" spans="1:26" ht="185.4" customHeight="1" outlineLevel="1">
       <c r="A17" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>80</v>
+      <c r="C17" s="49" t="s">
+        <v>165</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="D17" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>167</v>
-      </c>
       <c r="E17" s="57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>14</v>
@@ -31720,17 +31755,17 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="74" t="s">
-        <v>81</v>
+      <c r="A18" s="79" t="s">
+        <v>80</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="76"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
       <c r="J18" s="5"/>
       <c r="K18" s="27"/>
       <c r="L18" s="5"/>
@@ -31751,19 +31786,19 @@
     </row>
     <row r="19" spans="1:26" ht="403.8" customHeight="1" outlineLevel="1">
       <c r="A19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="59" t="s">
         <v>14</v>
@@ -59417,8 +59452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -59434,28 +59469,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="67" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="65" t="s">
@@ -59463,60 +59498,60 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A2" s="86" t="s">
-        <v>203</v>
+      <c r="A2" s="85" t="s">
+        <v>200</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:9" ht="73.5" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="C3" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="E3" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="71"/>
+    </row>
+    <row r="4" spans="1:9" ht="111" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:9" ht="111" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="C4" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>96</v>
-      </c>
       <c r="E4" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="64" t="s">
         <v>14</v>
@@ -59524,25 +59559,25 @@
       <c r="G4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="66" t="s">
-        <v>15</v>
+      <c r="H4" s="64" t="s">
+        <v>14</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="147" customHeight="1">
       <c r="A5" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>13</v>
@@ -59560,19 +59595,19 @@
     </row>
     <row r="6" spans="1:9" ht="91.2" customHeight="1">
       <c r="A6" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>99</v>
-      </c>
       <c r="E6" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>14</v>
@@ -59580,28 +59615,28 @@
       <c r="G6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="66" t="s">
-        <v>15</v>
+      <c r="H6" s="64" t="s">
+        <v>14</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="148.80000000000001" customHeight="1">
       <c r="A7" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="64" t="s">
         <v>14</v>
@@ -59616,16 +59651,16 @@
     </row>
     <row r="8" spans="1:9" ht="150" customHeight="1">
       <c r="A8" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>13</v>
@@ -59643,19 +59678,19 @@
     </row>
     <row r="9" spans="1:9" ht="100.2" customHeight="1">
       <c r="A9" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="64" t="s">
         <v>14</v>
@@ -59670,19 +59705,19 @@
     </row>
     <row r="10" spans="1:9" ht="56.4" customHeight="1">
       <c r="A10" s="60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="D10" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>104</v>
-      </c>
       <c r="E10" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>14</v>
@@ -59697,19 +59732,19 @@
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1">
       <c r="A11" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="D11" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>108</v>
-      </c>
       <c r="E11" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>14</v>
@@ -59724,19 +59759,19 @@
     </row>
     <row r="12" spans="1:9" ht="72" customHeight="1">
       <c r="A12" s="60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>199</v>
-      </c>
       <c r="E12" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>14</v>
@@ -59751,16 +59786,16 @@
     </row>
     <row r="13" spans="1:9" ht="112.2" customHeight="1">
       <c r="A13" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>13</v>
@@ -59777,33 +59812,33 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="92" t="s">
-        <v>204</v>
+      <c r="A14" s="88" t="s">
+        <v>201</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="266.39999999999998" customHeight="1">
       <c r="A15" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="D15" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="61" t="s">
-        <v>115</v>
-      </c>
       <c r="E15" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>14</v>
@@ -59817,33 +59852,33 @@
       <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="89" t="s">
-        <v>202</v>
+      <c r="A16" s="82" t="s">
+        <v>199</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:9" ht="117.6" customHeight="1">
       <c r="A17" s="60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="D17" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>119</v>
-      </c>
       <c r="E17" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="64" t="s">
         <v>14</v>
@@ -60910,32 +60945,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+    </row>
+    <row r="3" spans="1:8" ht="98.25" customHeight="1" outlineLevel="1">
+      <c r="A3" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
-    </row>
-    <row r="3" spans="1:8" ht="98.25" customHeight="1" outlineLevel="1">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>124</v>
-      </c>
       <c r="E3" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -60943,19 +60978,19 @@
     </row>
     <row r="4" spans="1:8" ht="96.75" customHeight="1" outlineLevel="1">
       <c r="A4" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -60963,19 +60998,19 @@
     </row>
     <row r="5" spans="1:8" ht="109.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -60983,19 +61018,19 @@
     </row>
     <row r="6" spans="1:8" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -61003,16 +61038,16 @@
     </row>
     <row r="7" spans="1:8" ht="123.75" customHeight="1" outlineLevel="1">
       <c r="A7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
@@ -61023,19 +61058,19 @@
     </row>
     <row r="8" spans="1:8" ht="110.25" customHeight="1" outlineLevel="1">
       <c r="A8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -61043,19 +61078,19 @@
     </row>
     <row r="9" spans="1:8" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -61063,19 +61098,19 @@
     </row>
     <row r="10" spans="1:8" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -61083,51 +61118,51 @@
     </row>
     <row r="11" spans="1:8" ht="90" customHeight="1" outlineLevel="1">
       <c r="A11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:8" ht="114.75" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-    </row>
-    <row r="13" spans="1:8" ht="114.75" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -61135,19 +61170,19 @@
     </row>
     <row r="14" spans="1:8" ht="147" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>163</v>
-      </c>
       <c r="E14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>

--- a/test/testcases.xlsx
+++ b/test/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Learning24\web\firstweb\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1C875-A3C1-4544-A6C1-5DA207FA2639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE81686-9C6C-4DE2-8370-BC28710AC5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -573,12 +573,6 @@
 + Click &lt;Log In&gt; button</t>
   </si>
   <si>
-    <t>1. User access to the system
-2. User clicks "Sign In" link in the menu
-3. User inputs [Email], [password] valid
-4. User clicks &lt;Log In&gt; button</t>
-  </si>
-  <si>
     <t>1. The system shows the home page
 2. The system shows the log in page
 3. All fields have filled data
@@ -586,10 +580,6 @@
   </si>
   <si>
     <t>si_tc_02</t>
-  </si>
-  <si>
-    <t>Log in unsuccessfully
-- Input [Email] and [Password] are blank</t>
   </si>
   <si>
     <t>1. The system shows the home page
@@ -601,16 +591,6 @@
     <t>si_tc_03</t>
   </si>
   <si>
-    <t>Log in unsuccessfully
-- Input [Email] is wrong format</t>
-  </si>
-  <si>
-    <t>1. User access to the system
-2. User clicks "Sign In" link in the menu
-3. User inputs [Email] is invalid
-4. User clicks &lt;Log In&gt; button</t>
-  </si>
-  <si>
     <t>1. The system shows the home page
 2. The system shows the log in page
 3. All fields have filled data
@@ -618,16 +598,6 @@
   </si>
   <si>
     <t>si_tc_04</t>
-  </si>
-  <si>
-    <t>Log in unsuccessfully
-- Input [Password] is less than 8 characters</t>
-  </si>
-  <si>
-    <t>1. User access to the system
-2. User clicks "Sign In" link in the menu
-3. User inputs [Password] &lt; 8 characters
-4. User clicks &lt;Log In&gt; button</t>
   </si>
   <si>
     <t>1. The system shows the home page
@@ -674,16 +644,6 @@
     <t>si_tc_06</t>
   </si>
   <si>
-    <t>Log in unsuccessfully
-- Input [Password] is incorrect</t>
-  </si>
-  <si>
-    <t>1. User access to the system
-2. User clicks "Sign In" link in the menu
-3. User inputs [Password] is incorrect
-4. User clicks &lt;Log In&gt; button</t>
-  </si>
-  <si>
     <t>1. The system shows the home page
 2. The system shows the log in page
 3. All fields have filled data
@@ -716,12 +676,6 @@
 4. User clicks &lt;Log In&gt; button</t>
   </si>
   <si>
-    <t>1. The system shows the home page
-2. The system shows the log in page
-3. All fields have filled data
-4. The system shows an error ME0010 message: "The email field is required."</t>
-  </si>
-  <si>
     <t>si_tc_09</t>
   </si>
   <si>
@@ -733,12 +687,6 @@
 2. User clicks "Sign In" link in the menu
 3. The [password] field is blank
 4. User clicks &lt;Log In&gt; button</t>
-  </si>
-  <si>
-    <t>1. The system shows the home page
-2. The system shows the log in page
-3. All fields have filled data
-4. The system shows an error ME0011 message: "The password field is required."</t>
   </si>
   <si>
     <t>Log Out</t>
@@ -1031,12 +979,92 @@
 Missing notification duyenqa.github.io says"</t>
     </r>
   </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [email] is not exist
+- Input [password] is valid</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. Input [email] isn't exist and [password] is wrong
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>si_tc_12</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [email] and [password] are blank</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. User inputs [email], [password] valid
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. User inputs [email] is invalid
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [email] is wrong format
+"kimduyen0205.com"</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system shows an error ME007 message: "Password must be at least 10 characters long, contain an uppercase letter, a lowercase letter, a number, and a special character."</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [password] is less than 10 characters</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. User inputs [password] &lt; 10 characters
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [password] &gt; 10 characters</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. User inputs [password] &gt; 10 characters
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>Log in unsuccessfully
+- Input [email] isn't exist</t>
+  </si>
+  <si>
+    <t>1. User access to the system
+2. User clicks "Sign In" link in the menu
+3. Input [email] isn't exist
+4. User clicks &lt;Log In&gt; button</t>
+  </si>
+  <si>
+    <t>1. The system shows the home page
+2. The system shows the log in page
+3. All fields have filled data
+4. The system shows an error ME009 message: "This email account isn't exist"</t>
+  </si>
+  <si>
+    <t>si_tc_13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,6 +1152,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1145,7 +1184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1383,11 +1422,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1464,7 +1527,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,7 +1542,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1580,6 +1641,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1637,7 +1716,41 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1945,8 +2058,8 @@
       <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="63" t="s">
-        <v>204</v>
+      <c r="I2" s="61" t="s">
+        <v>194</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -2073,16 +2186,16 @@
       <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -2104,30 +2217,30 @@
     </row>
     <row r="6" spans="1:27" ht="95.4" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>169</v>
+      <c r="B6" s="52" t="s">
+        <v>159</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>170</v>
+      <c r="C6" s="54" t="s">
+        <v>160</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>171</v>
+      <c r="D6" s="54" t="s">
+        <v>161</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -2149,7 +2262,7 @@
     </row>
     <row r="7" spans="1:27" ht="66.599999999999994" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>84</v>
@@ -2163,16 +2276,16 @@
       <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -2194,7 +2307,7 @@
     </row>
     <row r="8" spans="1:27" ht="85.2" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>87</v>
@@ -2202,22 +2315,22 @@
       <c r="C8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="61" t="s">
-        <v>177</v>
+      <c r="D8" s="59" t="s">
+        <v>167</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -31089,17 +31202,17 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -31442,13 +31555,13 @@
       <c r="E10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="40" t="s">
         <v>63</v>
       </c>
       <c r="I10" s="26" t="s">
@@ -31488,13 +31601,13 @@
       <c r="E11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="39" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="14"/>
@@ -31520,8 +31633,8 @@
       <c r="A12" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>163</v>
+      <c r="B12" s="41" t="s">
+        <v>153</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>70</v>
@@ -31532,17 +31645,17 @@
       <c r="E12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>164</v>
+      <c r="I12" s="43" t="s">
+        <v>154</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -31566,28 +31679,28 @@
       <c r="A13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>172</v>
+      <c r="B13" s="52" t="s">
+        <v>162</v>
       </c>
-      <c r="C13" s="56" t="s">
-        <v>173</v>
+      <c r="C13" s="54" t="s">
+        <v>163</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>174</v>
+      <c r="D13" s="54" t="s">
+        <v>164</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -31607,17 +31720,17 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="77"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -31637,31 +31750,31 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="178.5" customHeight="1" outlineLevel="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -31681,17 +31794,17 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
       <c r="J16" s="5"/>
       <c r="K16" s="27"/>
       <c r="L16" s="5"/>
@@ -31711,31 +31824,31 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="185.4" customHeight="1" outlineLevel="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>165</v>
+      <c r="C17" s="47" t="s">
+        <v>155</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>166</v>
+      <c r="D17" s="47" t="s">
+        <v>156</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -31755,17 +31868,17 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
       <c r="J18" s="5"/>
       <c r="K18" s="27"/>
       <c r="L18" s="5"/>
@@ -31794,23 +31907,23 @@
       <c r="C19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>167</v>
+      <c r="D19" s="43" t="s">
+        <v>157</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -31829,7 +31942,7 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="97.2" customHeight="1">
-      <c r="J20" s="48"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -59453,7 +59566,7 @@
   <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -59469,427 +59582,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A2" s="85" t="s">
-        <v>200</v>
+      <c r="A2" s="89" t="s">
+        <v>190</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="1:9" ht="73.5" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="71"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="111" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="147" customHeight="1">
+      <c r="A5" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="60"/>
+    </row>
+    <row r="6" spans="1:9" ht="91.2" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="148.80000000000001" customHeight="1">
+      <c r="A7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="150" customHeight="1">
+      <c r="A8" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="60"/>
+    </row>
+    <row r="9" spans="1:9" ht="100.2" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:9" ht="56.4" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="60"/>
+    </row>
+    <row r="11" spans="1:9" ht="60" customHeight="1">
+      <c r="A11" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="60"/>
+    </row>
+    <row r="12" spans="1:9" ht="72" customHeight="1">
+      <c r="A12" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="60"/>
+    </row>
+    <row r="13" spans="1:9" ht="112.2" customHeight="1">
+      <c r="A13" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="60"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="A14" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="94"/>
+    </row>
+    <row r="15" spans="1:9" ht="266.39999999999998" customHeight="1">
+      <c r="A15" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="60"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A16" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+    </row>
+    <row r="17" spans="1:9" ht="117.6" customHeight="1">
+      <c r="A17" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="61" t="s">
-        <v>95</v>
+      <c r="B17" s="59" t="s">
+        <v>116</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="C17" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="147" customHeight="1">
-      <c r="A5" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="62"/>
-    </row>
-    <row r="6" spans="1:9" ht="91.2" customHeight="1">
-      <c r="A6" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="148.80000000000001" customHeight="1">
-      <c r="A7" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="62"/>
-    </row>
-    <row r="8" spans="1:9" ht="150" customHeight="1">
-      <c r="A8" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="62"/>
-    </row>
-    <row r="9" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A9" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="62"/>
-    </row>
-    <row r="10" spans="1:9" ht="56.4" customHeight="1">
-      <c r="A10" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="62"/>
-    </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1">
-      <c r="A11" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="62"/>
-    </row>
-    <row r="12" spans="1:9" ht="72" customHeight="1">
-      <c r="A12" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="62"/>
-    </row>
-    <row r="13" spans="1:9" ht="112.2" customHeight="1">
-      <c r="A13" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="62"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:9" ht="266.39999999999998" customHeight="1">
-      <c r="A15" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="62"/>
-    </row>
-    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-    </row>
-    <row r="17" spans="1:9" ht="117.6" customHeight="1">
-      <c r="A17" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="62"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:9" ht="14.25" customHeight="1"/>
@@ -60902,9 +61015,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -60918,278 +61033,378 @@
     <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="42" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="I1" s="104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A2" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
-    </row>
-    <row r="3" spans="1:8" ht="98.25" customHeight="1" outlineLevel="1">
-      <c r="A3" s="31" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+    </row>
+    <row r="3" spans="1:9" ht="98.25" customHeight="1" outlineLevel="1">
+      <c r="A3" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="107"/>
+    </row>
+    <row r="4" spans="1:9" ht="96.75" customHeight="1" outlineLevel="1">
+      <c r="A4" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>32</v>
+      <c r="B4" s="14" t="s">
+        <v>198</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="96.75" customHeight="1" outlineLevel="1">
-      <c r="A4" s="35" t="s">
+      <c r="C4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="E4" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="103"/>
+    </row>
+    <row r="5" spans="1:9" ht="109.5" customHeight="1" outlineLevel="1">
+      <c r="A5" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>122</v>
+      <c r="B5" s="61" t="s">
+        <v>201</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E5" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="109.5" customHeight="1" outlineLevel="1">
-      <c r="A5" s="36" t="s">
+      <c r="F5" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="103"/>
+    </row>
+    <row r="6" spans="1:9" ht="153.75" customHeight="1" outlineLevel="1">
+      <c r="A6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>128</v>
+      <c r="B6" s="61" t="s">
+        <v>203</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>129</v>
+      <c r="C6" s="59" t="s">
+        <v>204</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="153.75" customHeight="1" outlineLevel="1">
-      <c r="A6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>134</v>
+      <c r="D6" s="59" t="s">
+        <v>202</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="123.75" customHeight="1" outlineLevel="1">
+      <c r="F6" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="103"/>
+    </row>
+    <row r="7" spans="1:9" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="8" spans="1:9" ht="123.75" customHeight="1" outlineLevel="1">
+      <c r="A8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="103"/>
+    </row>
+    <row r="9" spans="1:9" ht="110.25" customHeight="1" outlineLevel="1">
+      <c r="A9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>136</v>
+      <c r="B9" s="61" t="s">
+        <v>207</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>137</v>
+      <c r="C9" s="59" t="s">
+        <v>208</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="110.25" customHeight="1" outlineLevel="1">
-      <c r="A8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="153.75" customHeight="1" outlineLevel="1">
-      <c r="A9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>134</v>
+      <c r="D9" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="97.5" customHeight="1" outlineLevel="1">
+      <c r="F9" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A10" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="90" customHeight="1" outlineLevel="1">
+      <c r="H10" s="73"/>
+      <c r="I10" s="103"/>
+    </row>
+    <row r="11" spans="1:9" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A12" s="91" t="s">
-        <v>154</v>
+      <c r="H11" s="73"/>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:9" ht="90" customHeight="1" outlineLevel="1">
+      <c r="A12" s="6" t="s">
+        <v>145</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-    </row>
-    <row r="13" spans="1:8" ht="114.75" customHeight="1">
+      <c r="B12" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="103"/>
+    </row>
+    <row r="13" spans="1:9" ht="90" customHeight="1" outlineLevel="1">
       <c r="A13" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>157</v>
+      <c r="C13" s="8" t="s">
+        <v>196</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>158</v>
+      <c r="D13" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A14" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="103"/>
+    </row>
+    <row r="15" spans="1:9" ht="114.75" customHeight="1">
+      <c r="A15" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8" ht="147" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>159</v>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:9" ht="147" customHeight="1">
+      <c r="A16" s="75" t="s">
+        <v>210</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>160</v>
+      <c r="B16" s="14" t="s">
+        <v>150</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>161</v>
+      <c r="C16" s="14" t="s">
+        <v>151</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>162</v>
+      <c r="D16" s="14" t="s">
+        <v>152</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="103"/>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -62175,16 +62390,19 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:H3" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:H9" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Pass,Fail,Untested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E11 E13:E14" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E15:E16 E3:E13" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"High,Medium,Low,Block"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/testcases.xlsx
+++ b/test/testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Learning24\web\firstweb\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE81686-9C6C-4DE2-8370-BC28710AC5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8EC87-7108-4D9F-992B-C1CCC654AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1659,6 +1659,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1716,40 +1748,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31202,17 +31202,17 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -31720,17 +31720,17 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -31794,17 +31794,17 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
       <c r="J16" s="5"/>
       <c r="K16" s="27"/>
       <c r="L16" s="5"/>
@@ -31868,17 +31868,17 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="97"/>
       <c r="J18" s="5"/>
       <c r="K18" s="27"/>
       <c r="L18" s="5"/>
@@ -59611,17 +59611,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="73.5" customHeight="1">
       <c r="A3" s="66" t="s">
@@ -59925,17 +59925,17 @@
       <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="106"/>
     </row>
     <row r="15" spans="1:9" ht="266.39999999999998" customHeight="1">
       <c r="A15" s="58" t="s">
@@ -59965,17 +59965,17 @@
       <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:9" ht="117.6" customHeight="1">
       <c r="A17" s="58" t="s">
@@ -61018,7 +61018,7 @@
   <dimension ref="A1:I1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -61055,25 +61055,25 @@
       <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="83" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
     </row>
     <row r="3" spans="1:9" ht="98.25" customHeight="1" outlineLevel="1">
       <c r="A3" s="30" t="s">
@@ -61091,16 +61091,16 @@
       <c r="E3" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="107"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="4" spans="1:9" ht="96.75" customHeight="1" outlineLevel="1">
       <c r="A4" s="33" t="s">
@@ -61124,10 +61124,10 @@
       <c r="G4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="82"/>
     </row>
     <row r="5" spans="1:9" ht="109.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="34" t="s">
@@ -61151,10 +61151,10 @@
       <c r="G5" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A6" s="6" t="s">
@@ -61178,10 +61178,10 @@
       <c r="G6" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="99" t="s">
+      <c r="H6" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="103"/>
+      <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A7" s="6" t="s">
@@ -61205,10 +61205,10 @@
       <c r="G7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="103"/>
+      <c r="I7" s="82"/>
     </row>
     <row r="8" spans="1:9" ht="123.75" customHeight="1" outlineLevel="1">
       <c r="A8" s="6" t="s">
@@ -61232,10 +61232,10 @@
       <c r="G8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="103"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:9" ht="110.25" customHeight="1" outlineLevel="1">
       <c r="A9" s="6" t="s">
@@ -61259,10 +61259,10 @@
       <c r="G9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="87" t="s">
         <v>64</v>
       </c>
     </row>
@@ -61285,7 +61285,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="73"/>
-      <c r="I10" s="103"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:9" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="6" t="s">
@@ -61306,7 +61306,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="73"/>
-      <c r="I11" s="103"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:9" ht="90" customHeight="1" outlineLevel="1">
       <c r="A12" s="6" t="s">
@@ -61327,7 +61327,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="73"/>
-      <c r="I12" s="103"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:9" ht="90" customHeight="1" outlineLevel="1">
       <c r="A13" s="6" t="s">
@@ -61347,21 +61347,21 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="103"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="103"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:9" ht="114.75" customHeight="1">
       <c r="A15" s="75" t="s">
@@ -61381,8 +61381,8 @@
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="103"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:9" ht="147" customHeight="1">
       <c r="A16" s="75" t="s">
@@ -61402,8 +61402,8 @@
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>

--- a/test/testcases.xlsx
+++ b/test/testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Learning24\web\firstweb\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8EC87-7108-4D9F-992B-C1CCC654AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DB310-D003-4E04-AA03-46CD66CE306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="207">
   <si>
     <t>ID</t>
   </si>
@@ -600,12 +600,6 @@
     <t>si_tc_04</t>
   </si>
   <si>
-    <t>1. The system shows the home page
-2. The system shows the log in page
-3. All fields have filled data
-4. The system shows an error ME007 message: "Password must be at least 8 characters long, contain an uppercase letter, a lowercase letter, a number, and a special character."</t>
-  </si>
-  <si>
     <t>si_tc_05</t>
   </si>
   <si>
@@ -651,10 +645,6 @@
   </si>
   <si>
     <t>si_tc_07</t>
-  </si>
-  <si>
-    <t>Log in unsuccessfully
-- Input [Password] doesn't meet</t>
   </si>
   <si>
     <t>1. User access to the system
@@ -980,17 +970,6 @@
     </r>
   </si>
   <si>
-    <t>Log in unsuccessfully
-- Input [email] is not exist
-- Input [password] is valid</t>
-  </si>
-  <si>
-    <t>1. User access to the system
-2. User clicks "Sign In" link in the menu
-3. Input [email] isn't exist and [password] is wrong
-4. User clicks &lt;Log In&gt; button</t>
-  </si>
-  <si>
     <t>si_tc_12</t>
   </si>
   <si>
@@ -1054,17 +1033,18 @@
     <t>1. The system shows the home page
 2. The system shows the log in page
 3. All fields have filled data
-4. The system shows an error ME009 message: "This email account isn't exist"</t>
+4. The system shows an error ME009 message: "This email account doesn't exist"</t>
   </si>
   <si>
-    <t>si_tc_13</t>
+    <t>Log in unsuccessfully
+- Input [Password] doesn't meet but number of characters is correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,11 +1080,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1156,12 +1131,6 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1450,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,9 +1517,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1558,19 +1524,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1578,10 +1544,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1591,13 +1557,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1606,85 +1572,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1717,38 +1671,43 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2058,8 +2017,8 @@
       <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="61" t="s">
-        <v>194</v>
+      <c r="I2" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -2186,16 +2145,16 @@
       <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -2217,30 +2176,30 @@
     </row>
     <row r="6" spans="1:27" ht="95.4" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -2262,7 +2221,7 @@
     </row>
     <row r="7" spans="1:27" ht="66.599999999999994" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>84</v>
@@ -2276,16 +2235,16 @@
       <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -2307,7 +2266,7 @@
     </row>
     <row r="8" spans="1:27" ht="85.2" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>87</v>
@@ -2315,22 +2274,22 @@
       <c r="C8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>167</v>
+      <c r="D8" s="58" t="s">
+        <v>165</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -31119,7 +31078,7 @@
       <c r="AA1000" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:H8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail,Untested"</formula1>
@@ -31202,17 +31161,17 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -31555,13 +31514,13 @@
       <c r="E10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>63</v>
       </c>
       <c r="I10" s="26" t="s">
@@ -31601,13 +31560,13 @@
       <c r="E11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="14"/>
@@ -31633,8 +31592,8 @@
       <c r="A12" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>153</v>
+      <c r="B12" s="40" t="s">
+        <v>151</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>70</v>
@@ -31645,17 +31604,17 @@
       <c r="E12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="43" t="s">
-        <v>154</v>
+      <c r="I12" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -31679,28 +31638,28 @@
       <c r="A13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -31720,17 +31679,17 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -31750,7 +31709,7 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="178.5" customHeight="1" outlineLevel="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -31765,16 +31724,16 @@
       <c r="E15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -31794,17 +31753,17 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
       <c r="J16" s="5"/>
       <c r="K16" s="27"/>
       <c r="L16" s="5"/>
@@ -31824,31 +31783,31 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="185.4" customHeight="1" outlineLevel="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>155</v>
+      <c r="C17" s="46" t="s">
+        <v>153</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>156</v>
+      <c r="D17" s="46" t="s">
+        <v>154</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="38"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -31868,17 +31827,17 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="97"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="5"/>
       <c r="K18" s="27"/>
       <c r="L18" s="5"/>
@@ -31907,23 +31866,23 @@
       <c r="C19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>157</v>
+      <c r="D19" s="42" t="s">
+        <v>155</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -31942,7 +31901,7 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="97.2" customHeight="1">
-      <c r="J20" s="46"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -59547,7 +59506,7 @@
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A18:I18"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F15:H15 F17:H17 F3:H13 F19:H19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail,Untested"</formula1>
@@ -59582,427 +59541,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
+    </row>
+    <row r="3" spans="1:9" ht="73.5" customHeight="1">
+      <c r="A3" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:9" ht="111" customHeight="1">
+      <c r="A4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
-    </row>
-    <row r="3" spans="1:9" ht="73.5" customHeight="1">
-      <c r="A3" s="66" t="s">
-        <v>89</v>
+    </row>
+    <row r="5" spans="1:9" ht="147" customHeight="1">
+      <c r="A5" s="57" t="s">
+        <v>96</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>90</v>
+      <c r="B5" s="58" t="s">
+        <v>170</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>91</v>
+      <c r="C5" s="58" t="s">
+        <v>172</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>92</v>
+      <c r="D5" s="58" t="s">
+        <v>178</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="59"/>
+    </row>
+    <row r="6" spans="1:9" ht="91.2" customHeight="1">
+      <c r="A6" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="148.80000000000001" customHeight="1">
+      <c r="A7" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="69"/>
-    </row>
-    <row r="4" spans="1:9" ht="111" customHeight="1">
-      <c r="A4" s="58" t="s">
-        <v>93</v>
+      <c r="I7" s="59"/>
+    </row>
+    <row r="8" spans="1:9" ht="150" customHeight="1">
+      <c r="A8" s="57" t="s">
+        <v>104</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>94</v>
+      <c r="B8" s="58" t="s">
+        <v>171</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>178</v>
+      <c r="C8" s="58" t="s">
+        <v>173</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>95</v>
+      <c r="D8" s="58" t="s">
+        <v>179</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E8" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="59"/>
+    </row>
+    <row r="9" spans="1:9" ht="100.2" customHeight="1">
+      <c r="A9" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:9" ht="56.4" customHeight="1">
+      <c r="A10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="59" t="s">
-        <v>192</v>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" ht="60" customHeight="1">
+      <c r="A11" s="57" t="s">
+        <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="147" customHeight="1">
-      <c r="A5" s="58" t="s">
-        <v>96</v>
+      <c r="B11" s="58" t="s">
+        <v>105</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>172</v>
+      <c r="C11" s="58" t="s">
+        <v>106</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>174</v>
+      <c r="D11" s="58" t="s">
+        <v>107</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>180</v>
+      <c r="E11" s="39" t="s">
+        <v>37</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:9" ht="72" customHeight="1">
+      <c r="A12" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="1:9" ht="112.2" customHeight="1">
+      <c r="A13" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="60"/>
-    </row>
-    <row r="6" spans="1:9" ht="91.2" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>99</v>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="A14" s="99" t="s">
+        <v>189</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>97</v>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
+    </row>
+    <row r="15" spans="1:9" ht="266.39999999999998" customHeight="1">
+      <c r="A15" s="57" t="s">
+        <v>168</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>179</v>
+      <c r="B15" s="58" t="s">
+        <v>112</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>98</v>
+      <c r="C15" s="58" t="s">
+        <v>113</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>37</v>
+      <c r="D15" s="58" t="s">
+        <v>114</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="E15" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="59" t="s">
-        <v>193</v>
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1">
+      <c r="A16" s="93" t="s">
+        <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="148.80000000000001" customHeight="1">
-      <c r="A7" s="58" t="s">
-        <v>100</v>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
+    </row>
+    <row r="17" spans="1:9" ht="117.6" customHeight="1">
+      <c r="A17" s="57" t="s">
+        <v>186</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>168</v>
+      <c r="B17" s="58" t="s">
+        <v>116</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>177</v>
+      <c r="C17" s="58" t="s">
+        <v>117</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>176</v>
+      <c r="D17" s="58" t="s">
+        <v>118</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="60"/>
-    </row>
-    <row r="8" spans="1:9" ht="150" customHeight="1">
-      <c r="A8" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="60"/>
-    </row>
-    <row r="9" spans="1:9" ht="100.2" customHeight="1">
-      <c r="A9" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" spans="1:9" ht="56.4" customHeight="1">
-      <c r="A10" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="60"/>
-    </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1">
-      <c r="A11" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="60"/>
-    </row>
-    <row r="12" spans="1:9" ht="72" customHeight="1">
-      <c r="A12" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="60"/>
-    </row>
-    <row r="13" spans="1:9" ht="112.2" customHeight="1">
-      <c r="A13" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="60"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106"/>
-    </row>
-    <row r="15" spans="1:9" ht="266.39999999999998" customHeight="1">
-      <c r="A15" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="60"/>
-    </row>
-    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="100"/>
-    </row>
-    <row r="17" spans="1:9" ht="117.6" customHeight="1">
-      <c r="A17" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="60"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:9" ht="14.25" customHeight="1"/>
@@ -60999,7 +60958,7 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A14:I14"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F17:H17 F3:H13 F15:H15" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pass,Fail,Untested"</formula1>
@@ -61015,10 +60974,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I1003"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -61055,25 +61014,25 @@
       <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="78" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:9" ht="98.25" customHeight="1" outlineLevel="1">
       <c r="A3" s="30" t="s">
@@ -61083,219 +61042,223 @@
         <v>121</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="96.75" customHeight="1" outlineLevel="1">
       <c r="A4" s="33" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="109.5" customHeight="1" outlineLevel="1">
       <c r="A5" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>201</v>
+      <c r="B5" s="60" t="s">
+        <v>197</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="82"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>203</v>
+      <c r="B6" s="60" t="s">
+        <v>199</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>204</v>
+      <c r="C6" s="58" t="s">
+        <v>200</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>202</v>
+      <c r="D6" s="58" t="s">
+        <v>198</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="82"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:9" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="77"/>
+    </row>
+    <row r="8" spans="1:9" ht="123.75" customHeight="1" outlineLevel="1">
+      <c r="A8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="82"/>
-    </row>
-    <row r="8" spans="1:9" ht="123.75" customHeight="1" outlineLevel="1">
-      <c r="A8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="77"/>
     </row>
     <row r="9" spans="1:9" ht="110.25" customHeight="1" outlineLevel="1">
       <c r="A9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>207</v>
+      <c r="B9" s="60" t="s">
+        <v>203</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>208</v>
+      <c r="C9" s="58" t="s">
+        <v>204</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>209</v>
+      <c r="D9" s="58" t="s">
+        <v>205</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="74" t="s">
-        <v>15</v>
+      <c r="F9" s="71" t="s">
+        <v>14</v>
       </c>
-      <c r="G9" s="74" t="s">
-        <v>15</v>
+      <c r="G9" s="71" t="s">
+        <v>14</v>
       </c>
-      <c r="H9" s="79" t="s">
-        <v>15</v>
+      <c r="H9" s="75" t="s">
+        <v>14</v>
       </c>
-      <c r="I9" s="87" t="s">
-        <v>64</v>
-      </c>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:9" ht="153.75" customHeight="1" outlineLevel="1">
       <c r="A10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="14" t="s">
         <v>136</v>
       </c>
+      <c r="B10" s="60" t="s">
+        <v>206</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>128</v>
+      <c r="D10" s="58" t="s">
+        <v>133</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="82"/>
+      <c r="F10" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="1:9" ht="97.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>124</v>
@@ -61303,20 +61266,26 @@
       <c r="E11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="82"/>
+      <c r="F11" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" ht="90" customHeight="1" outlineLevel="1">
       <c r="A12" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>124</v>
@@ -61324,87 +61293,85 @@
       <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="82"/>
-    </row>
-    <row r="13" spans="1:9" ht="90" customHeight="1" outlineLevel="1">
-      <c r="A13" s="6" t="s">
+      <c r="F12" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="77"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A13" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+    </row>
+    <row r="14" spans="1:9" ht="114.75" customHeight="1">
+      <c r="A14" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="77"/>
+    </row>
+    <row r="15" spans="1:9" ht="147" customHeight="1">
+      <c r="A15" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>195</v>
+      <c r="D15" s="14" t="s">
+        <v>150</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="82"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="107" t="s">
-        <v>144</v>
+      <c r="F15" s="71" t="s">
+        <v>14</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="82"/>
-    </row>
-    <row r="15" spans="1:9" ht="114.75" customHeight="1">
-      <c r="A15" s="75" t="s">
-        <v>197</v>
+      <c r="G15" s="71" t="s">
+        <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>146</v>
+      <c r="H15" s="71" t="s">
+        <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
-    </row>
-    <row r="16" spans="1:9" ht="147" customHeight="1">
-      <c r="A16" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-    </row>
+      <c r="I15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -62391,18 +62358,17 @@
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
     <row r="1002" ht="14.25" customHeight="1"/>
-    <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:H9" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:H12 F14:H15" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Pass,Fail,Untested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E15:E16 E3:E13" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E14:E15 E3:E12" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"High,Medium,Low,Block"</formula1>
     </dataValidation>
   </dataValidations>
